--- a/mendelian_conservation/Protein_Data/NPC1-ExAC.xlsx
+++ b/mendelian_conservation/Protein_Data/NPC1-ExAC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="results-exac" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="1460">
   <si>
     <t>Gene </t>
   </si>
@@ -4397,6 +4397,12 @@
   </si>
   <si>
     <t>1.13197</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stdev</t>
   </si>
 </sst>
 </file>
@@ -4406,11 +4412,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4427,14 +4434,8 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4444,7 +4445,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
   </fills>
@@ -4482,16 +4489,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4520,7 +4531,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -4572,22 +4583,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J412"/>
+  <dimension ref="A1:J414"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D412" activeCellId="0" sqref="D412"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A406" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C417" activeCellId="0" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.51530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.81632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.61734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.44387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.65816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.69897959183674"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18184,6 +18195,52 @@
       <c r="J412" s="2" t="s">
         <v>1457</v>
       </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B413" s="3"/>
+      <c r="C413" s="3" t="n">
+        <f aca="false">AVERAGE(C2:C412)</f>
+        <v>-0.501907542579076</v>
+      </c>
+      <c r="D413" s="3" t="n">
+        <f aca="false">AVERAGE(D2:D412)</f>
+        <v>0.623086618004867</v>
+      </c>
+      <c r="E413" s="3"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="3" t="n">
+        <f aca="false">AVERAGE(G2:G412)</f>
+        <v>0.333771289537713</v>
+      </c>
+      <c r="H413" s="3"/>
+      <c r="I413" s="3"/>
+      <c r="J413" s="3"/>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B414" s="3"/>
+      <c r="C414" s="3" t="n">
+        <f aca="false">STDEV(C2:C412)</f>
+        <v>0.69151420373508</v>
+      </c>
+      <c r="D414" s="3" t="n">
+        <f aca="false">STDEV(D2:D412)</f>
+        <v>0.584408795188484</v>
+      </c>
+      <c r="E414" s="3"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="3" t="n">
+        <f aca="false">STDEV(G2:G412)</f>
+        <v>0.195983165660929</v>
+      </c>
+      <c r="H414" s="3"/>
+      <c r="I414" s="3"/>
+      <c r="J414" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18209,7 +18266,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21503,7 +21560,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -21524,7 +21581,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24818,7 +24875,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -24833,13 +24890,13 @@
   </sheetPr>
   <dimension ref="A1:B411"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28133,7 +28190,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/mendelian_conservation/Protein_Data/NPC1-ExAC.xlsx
+++ b/mendelian_conservation/Protein_Data/NPC1-ExAC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="results-exac" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="1481">
   <si>
     <t>Gene </t>
   </si>
@@ -4403,6 +4403,69 @@
   </si>
   <si>
     <t>Stdev</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa35bb6d01b27e2d62707/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa382b6d01b27e2d62709/</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed?cmd=search&amp;term=11333381</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed?cmd=search&amp;term=11545687</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed?cmd=search&amp;term=16126423</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa3aab6d01b27e2d6270b/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa3c8b6d01b27e2d6270d/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa3eab6d01b27e2d6270f/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa406b6d01b27e2d62711/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa421b6d01b27e2d62713/</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/sites/entrez?db=pubmed&amp;cmd=search&amp;term=11349231</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/sites/entrez?db=pubmed&amp;cmd=search&amp;term=11545687</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/sites/entrez?db=pubmed&amp;cmd=search&amp;term=12401890</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/sites/entrez?db=pubmed&amp;cmd=search&amp;term=16098014</t>
+  </si>
+  <si>
+    <t>Mean Pathogenic</t>
+  </si>
+  <si>
+    <t>1 STDEV</t>
+  </si>
+  <si>
+    <t>2 STDEV</t>
+  </si>
+  <si>
+    <t>Mean Benign</t>
+  </si>
+  <si>
+    <t>Mean ExAC</t>
+  </si>
+  <si>
+    <t>STDEV ExaC</t>
+  </si>
+  <si>
+    <t>3 STDEV</t>
   </si>
 </sst>
 </file>
@@ -4435,7 +4498,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4452,6 +4515,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
   </fills>
@@ -4489,7 +4558,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4503,6 +4572,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4520,7 +4593,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00CC33"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -4585,20 +4658,19 @@
   </sheetPr>
   <dimension ref="A1:J414"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A406" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A406" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C417" activeCellId="0" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.44387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.65816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3826530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.85714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6836734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0816326530612"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.69897959183674"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.780612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.78571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18265,9 +18337,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.780612244898"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -21580,9 +21649,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.780612244898"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -24888,134 +24954,176 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B411"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.780612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="4" t="n">
         <v>10.09023</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <v>9.37611</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>8.85216</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4" t="n">
         <v>8.51001</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4" t="n">
         <v>8.34017</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>1467</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4" t="n">
         <v>8.26938</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4" t="n">
         <v>7.60051</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>1473</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4" t="n">
         <v>7.57701</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4" t="n">
         <v>7.54099</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4" t="n">
         <v>7.2878</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4" t="n">
         <v>7.26535</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="4" t="n">
         <v>7.26253</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="4" t="n">
         <v>7.22576</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="4" t="n">
         <v>7.15063</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="4" t="n">
         <v>7.13675</v>
       </c>
     </row>
@@ -25034,6 +25142,12 @@
       <c r="B17" s="2" t="n">
         <v>6.84904</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>4.34552105263158</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -25042,6 +25156,12 @@
       <c r="B18" s="2" t="n">
         <v>6.79303</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>6.57295178464984</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -25050,6 +25170,12 @@
       <c r="B19" s="2" t="n">
         <v>6.73762</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>8.8003825166681</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -25058,6 +25184,12 @@
       <c r="B20" s="2" t="n">
         <v>6.7372</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1.24439333333333</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -25066,6 +25198,13 @@
       <c r="B21" s="2" t="n">
         <v>6.69252</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <f aca="false">AVERAGE(B17:B427)</f>
+        <v>2.9851735443038</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -25074,6 +25213,13 @@
       <c r="B22" s="2" t="n">
         <v>6.55155</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <f aca="false">STDEV(B17:B427)</f>
+        <v>1.73699014991687</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -25082,6 +25228,13 @@
       <c r="B23" s="2" t="n">
         <v>6.50345</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <f aca="false">E21+2*E22</f>
+        <v>6.45915384413753</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -25089,6 +25242,13 @@
       </c>
       <c r="B24" s="2" t="n">
         <v>6.42754</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <f aca="false">E21+3*E22</f>
+        <v>8.1961439940544</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/mendelian_conservation/Protein_Data/NPC1-ExAC.xlsx
+++ b/mendelian_conservation/Protein_Data/NPC1-ExAC.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4156" uniqueCount="1490">
   <si>
     <t>Gene </t>
   </si>
@@ -4445,6 +4445,33 @@
   </si>
   <si>
     <t>http://www.ncbi.nlm.nih.gov/sites/entrez?db=pubmed&amp;cmd=search&amp;term=16098014</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa438b6d01b27e2d62715/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa450b6d01b27e2d62717/</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/sites/entrez?db=pubmed&amp;cmd=search&amp;term=11333381</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa471b6d01b27e2d62719/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa488b6d01b27e2d6271b/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa49eb6d01b27e2d6271d/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa4bab6d01b27e2d6271f/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa4d2b6d01b27e2d62721/</t>
+  </si>
+  <si>
+    <t>http://www.cmbi.ru.nl/hope/report/579fa4e9b6d01b27e2d62723/</t>
   </si>
   <si>
     <t>Mean Pathogenic</t>
@@ -24957,7 +24984,7 @@
   <dimension ref="A1:G411"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -25070,6 +25097,9 @@
       <c r="B8" s="4" t="n">
         <v>7.57701</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -25078,6 +25108,18 @@
       <c r="B9" s="4" t="n">
         <v>7.54099</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>1473</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -25086,6 +25128,9 @@
       <c r="B10" s="4" t="n">
         <v>7.2878</v>
       </c>
+      <c r="C10" s="0" t="s">
+        <v>1477</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -25094,6 +25139,9 @@
       <c r="B11" s="4" t="n">
         <v>7.26535</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -25102,6 +25150,12 @@
       <c r="B12" s="4" t="n">
         <v>7.26253</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -25110,6 +25164,9 @@
       <c r="B13" s="4" t="n">
         <v>7.22576</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>1480</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
@@ -25118,6 +25175,9 @@
       <c r="B14" s="4" t="n">
         <v>7.15063</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>1481</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -25126,6 +25186,9 @@
       <c r="B15" s="4" t="n">
         <v>7.13675</v>
       </c>
+      <c r="C15" s="0" t="s">
+        <v>1482</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -25143,7 +25206,7 @@
         <v>6.84904</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1474</v>
+        <v>1483</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>4.34552105263158</v>
@@ -25157,7 +25220,7 @@
         <v>6.79303</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1475</v>
+        <v>1484</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>6.57295178464984</v>
@@ -25171,7 +25234,7 @@
         <v>6.73762</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1476</v>
+        <v>1485</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>8.8003825166681</v>
@@ -25185,7 +25248,7 @@
         <v>6.7372</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1477</v>
+        <v>1486</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>1.24439333333333</v>
@@ -25199,7 +25262,7 @@
         <v>6.69252</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1478</v>
+        <v>1487</v>
       </c>
       <c r="E21" s="3" t="n">
         <f aca="false">AVERAGE(B17:B427)</f>
@@ -25214,7 +25277,7 @@
         <v>6.55155</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1479</v>
+        <v>1488</v>
       </c>
       <c r="E22" s="3" t="n">
         <f aca="false">STDEV(B17:B427)</f>
@@ -25229,7 +25292,7 @@
         <v>6.50345</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1476</v>
+        <v>1485</v>
       </c>
       <c r="E23" s="3" t="n">
         <f aca="false">E21+2*E22</f>
@@ -25244,7 +25307,7 @@
         <v>6.42754</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1480</v>
+        <v>1489</v>
       </c>
       <c r="E24" s="3" t="n">
         <f aca="false">E21+3*E22</f>
